--- a/mapping/mml_patient_module_mapping.xlsx
+++ b/mapping/mml_patient_module_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="207">
   <si>
     <t>Elements</t>
   </si>
@@ -493,10 +493,6 @@
     <t>MML0002</t>
   </si>
   <si>
-    <t>HL7-0190</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlAd:tableId</t>
   </si>
   <si>
@@ -696,6 +692,17 @@
   </si>
   <si>
     <t>Date time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006]</t>
+  </si>
+  <si>
+    <t>＊ValueはHL7-0190きめうち</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -763,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +791,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,6 +1109,7 @@
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -1670,7 +1681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1695,7 +1706,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -1715,7 +1726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -1735,7 +1746,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1762,7 +1773,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1776,7 +1787,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1793,7 +1804,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
@@ -1812,10 +1823,10 @@
         <v>141</v>
       </c>
       <c r="J39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -1831,14 +1842,17 @@
         <v>143</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+      <c r="J40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>13</v>
@@ -1847,11 +1861,14 @@
         <v>36</v>
       </c>
       <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
@@ -1862,16 +1879,16 @@
       </c>
       <c r="F42" s="5"/>
       <c r="I42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
@@ -1882,16 +1899,16 @@
       </c>
       <c r="F43" s="5"/>
       <c r="I43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
@@ -1902,16 +1919,16 @@
       </c>
       <c r="F44" s="5"/>
       <c r="I44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
@@ -1922,16 +1939,16 @@
       </c>
       <c r="F45" s="5"/>
       <c r="I45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
@@ -1942,16 +1959,16 @@
       </c>
       <c r="F46" s="5"/>
       <c r="I46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J46" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
@@ -1962,16 +1979,16 @@
       </c>
       <c r="F47" s="5"/>
       <c r="I47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J47" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
@@ -1982,10 +1999,10 @@
       </c>
       <c r="F48" s="5"/>
       <c r="I48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -2002,7 +2019,7 @@
       </c>
       <c r="F49" s="1"/>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -2021,10 +2038,10 @@
       </c>
       <c r="F50" s="1"/>
       <c r="I50" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" t="s">
         <v>168</v>
-      </c>
-      <c r="J50" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -2055,14 +2072,14 @@
       </c>
       <c r="F52" s="1"/>
       <c r="H52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -2071,19 +2088,19 @@
         <v>36</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="J53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
@@ -2094,16 +2111,16 @@
       </c>
       <c r="F54" s="1"/>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
@@ -2114,16 +2131,16 @@
       </c>
       <c r="F55" s="1"/>
       <c r="I55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
@@ -2134,16 +2151,16 @@
       </c>
       <c r="F56" s="1"/>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -2154,16 +2171,16 @@
       </c>
       <c r="F57" s="1"/>
       <c r="I57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -2174,16 +2191,16 @@
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -2194,16 +2211,16 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -2214,10 +2231,10 @@
       </c>
       <c r="F60" s="1"/>
       <c r="I60" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2239,10 +2256,10 @@
         <v>81</v>
       </c>
       <c r="I61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J61" t="s">
         <v>196</v>
-      </c>
-      <c r="J61" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -2261,10 +2278,10 @@
       </c>
       <c r="F62" s="1"/>
       <c r="I62" t="s">
+        <v>197</v>
+      </c>
+      <c r="J62" t="s">
         <v>198</v>
-      </c>
-      <c r="J62" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -2283,13 +2300,13 @@
       </c>
       <c r="F63" s="1"/>
       <c r="H63" t="s">
+        <v>199</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" t="s">
         <v>201</v>
-      </c>
-      <c r="J63" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2306,10 +2323,10 @@
       </c>
       <c r="F64" s="1"/>
       <c r="I64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_patient_module_mapping.xlsx
+++ b/mapping/mml_patient_module_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="23475" windowHeight="9795"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="23475" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,32 +437,12 @@
     <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.17]/items[at0.18]</t>
   </si>
   <si>
-    <t>nationality/primary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nationality/seconday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>race/race</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.race.v1 and name/value='Race']/items[at0001]</t>
   </si>
   <si>
     <t>openEHR-EHR-CLUSTER.race.v1</t>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>code id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.race.v1 and name/value='Race']/items[at0002]</t>
   </si>
   <si>
@@ -681,20 +661,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Death</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0001]</t>
   </si>
   <si>
     <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0002]</t>
   </si>
   <si>
-    <t>Date time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Address type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -703,6 +675,34 @@
   </si>
   <si>
     <t>＊ValueはHL7-0190きめうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*nationality/primary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*nationality/seconday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*race/race</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*code id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*Death</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*Date time</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,8 +1657,8 @@
         <v>34</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="I31" t="s">
-        <v>128</v>
+      <c r="I31" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="J31" t="s">
         <v>127</v>
@@ -1677,8 +1677,8 @@
         <v>36</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="I32" t="s">
-        <v>129</v>
+      <c r="I32" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -1697,13 +1697,13 @@
       </c>
       <c r="F33" s="1"/>
       <c r="H33" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1719,11 +1719,11 @@
         <v>36</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="I34" t="s">
-        <v>133</v>
+      <c r="I34" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1739,11 +1739,11 @@
         <v>36</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="I35" t="s">
-        <v>134</v>
+      <c r="I35" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="J35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -1767,10 +1767,10 @@
         <v>81</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -1801,14 +1801,14 @@
       </c>
       <c r="F38" s="1"/>
       <c r="H38" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>13</v>
@@ -1820,17 +1820,17 @@
         <v>101</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>13</v>
@@ -1839,20 +1839,20 @@
         <v>36</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J40" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>13</v>
@@ -1862,13 +1862,13 @@
       </c>
       <c r="F41" s="5"/>
       <c r="K41" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
@@ -1879,16 +1879,16 @@
       </c>
       <c r="F42" s="5"/>
       <c r="I42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
@@ -1899,16 +1899,16 @@
       </c>
       <c r="F43" s="5"/>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
@@ -1919,16 +1919,16 @@
       </c>
       <c r="F44" s="5"/>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J44" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
@@ -1939,16 +1939,16 @@
       </c>
       <c r="F45" s="5"/>
       <c r="I45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
@@ -1959,16 +1959,16 @@
       </c>
       <c r="F46" s="5"/>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
@@ -1979,16 +1979,16 @@
       </c>
       <c r="F47" s="5"/>
       <c r="I47" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J47" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
@@ -1999,10 +1999,10 @@
       </c>
       <c r="F48" s="5"/>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J48" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="F49" s="1"/>
       <c r="H49" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -2038,10 +2038,10 @@
       </c>
       <c r="F50" s="1"/>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J50" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -2072,14 +2072,14 @@
       </c>
       <c r="F52" s="1"/>
       <c r="H52" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -2088,19 +2088,19 @@
         <v>36</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J53" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
@@ -2111,16 +2111,16 @@
       </c>
       <c r="F54" s="1"/>
       <c r="I54" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J54" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
@@ -2131,16 +2131,16 @@
       </c>
       <c r="F55" s="1"/>
       <c r="I55" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J55" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
@@ -2151,16 +2151,16 @@
       </c>
       <c r="F56" s="1"/>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J56" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -2171,16 +2171,16 @@
       </c>
       <c r="F57" s="1"/>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -2191,16 +2191,16 @@
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J58" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -2211,16 +2211,16 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J59" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -2231,10 +2231,10 @@
       </c>
       <c r="F60" s="1"/>
       <c r="I60" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J60" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -2256,10 +2256,10 @@
         <v>81</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -2278,10 +2278,10 @@
       </c>
       <c r="F62" s="1"/>
       <c r="I62" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J62" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -2300,13 +2300,13 @@
       </c>
       <c r="F63" s="1"/>
       <c r="H63" t="s">
-        <v>199</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="J63" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2322,11 +2322,11 @@
         <v>36</v>
       </c>
       <c r="F64" s="1"/>
-      <c r="I64" t="s">
-        <v>203</v>
+      <c r="I64" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="J64" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_patient_module_mapping.xlsx
+++ b/mapping/mml_patient_module_mapping.xlsx
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63:I64"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1108,7 +1108,7 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/mapping/mml_patient_module_mapping.xlsx
+++ b/mapping/mml_patient_module_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
   <si>
     <t>Elements</t>
   </si>
@@ -273,9 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[openEHR-EHR-CLUSTER.patient_module.v1]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.patient_module.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -288,9 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0.9]</t>
-  </si>
-  <si>
     <t>master id/checkDigit</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -311,16 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0.10]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0.11]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.8]</t>
-  </si>
-  <si>
     <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.5 and name/value='Identifier']</t>
   </si>
   <si>
@@ -332,15 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.14]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.12]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.13]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.person_name-mml.v1</t>
   </si>
   <si>
@@ -399,63 +374,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]</t>
-  </si>
-  <si>
     <t>Date of birth</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0007]</t>
-  </si>
-  <si>
     <t>Sex</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0017]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.17]/items[at0.18]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.race.v1 and name/value='Race']/items[at0001]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.race.v1</t>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.race.v1 and name/value='Race']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.race.v1 and name/value='Race']/items[at0003]</t>
-  </si>
-  <si>
     <t>marital</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.4]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.address-japan.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,37 +458,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.21]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]</t>
-  </si>
-  <si>
     <t>Email address</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.telecom_details-japan.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,90 +525,297 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]</t>
-  </si>
-  <si>
     <t>account number</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>social identification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.16]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.death.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0001]</t>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0002]</t>
+  </si>
+  <si>
+    <t>Address type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*nationality/primary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*nationality/seconday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*race/race</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*code id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*Death</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*Date time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0016.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0.9]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0.9]/term_mappints[1]/defining_code/teble_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0.9]/term_mappints[1]/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"="で固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0.10]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.6]/items[at0.11]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.8]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.8]/term_mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.8]/term_mappings/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.12]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.13]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0017]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.race.v1 and name/value='Race']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.race.v1 and name/value='Race']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.17]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.race.v1 and name/value='Race']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.4]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]</t>
+  </si>
+  <si>
     <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.15]</t>
-  </si>
-  <si>
-    <t>social identification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.16]</t>
-  </si>
-  <si>
-    <t>openEHR-EHR-CLUSTER.death.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0002]</t>
-  </si>
-  <si>
-    <t>Address type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006]</t>
-  </si>
-  <si>
-    <t>＊ValueはHL7-0190きめうち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*nationality/primary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*nationality/seconday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*race/race</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*code id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*Death</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*Date time</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -770,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +906,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1109,21 +1225,22 @@
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="25" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1131,7 +1248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1154,8 +1271,14 @@
       <c r="I3" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1167,10 +1290,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1305,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1317,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,13 +1331,16 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="K7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>67</v>
@@ -1228,13 +1354,16 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>70</v>
@@ -1247,34 +1376,34 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="I10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>73</v>
@@ -1282,92 +1411,104 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="I14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>68</v>
@@ -1377,172 +1518,192 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="H20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F22" s="1"/>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="I23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J24" s="8"/>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="I25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -1551,16 +1712,19 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -1571,122 +1735,139 @@
       </c>
       <c r="F27" s="1"/>
       <c r="I27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="I28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="I28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="H29" t="s">
-        <v>81</v>
-      </c>
       <c r="I29" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="I30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="I31" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="I32" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
@@ -1696,21 +1877,21 @@
         <v>34</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="H33" t="s">
-        <v>129</v>
-      </c>
       <c r="I33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" t="s">
         <v>202</v>
       </c>
-      <c r="J33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -1720,195 +1901,217 @@
       </c>
       <c r="F34" s="1"/>
       <c r="I34" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="H35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="I36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="I35" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="F37" s="1"/>
+      <c r="I37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H36" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="J40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F40" s="1"/>
+      <c r="H40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="K41" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="I42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="I43" t="s">
-        <v>143</v>
-      </c>
-      <c r="J43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K43" t="s">
+        <v>203</v>
+      </c>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
@@ -1919,16 +2122,19 @@
       </c>
       <c r="F44" s="5"/>
       <c r="I44" t="s">
-        <v>145</v>
-      </c>
-      <c r="J44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
@@ -1939,16 +2145,19 @@
       </c>
       <c r="F45" s="5"/>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="J45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="K45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
@@ -1959,16 +2168,19 @@
       </c>
       <c r="F46" s="5"/>
       <c r="I46" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="K46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
@@ -1979,16 +2191,19 @@
       </c>
       <c r="F47" s="5"/>
       <c r="I47" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="J47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="K47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
@@ -1999,57 +2214,67 @@
       </c>
       <c r="F48" s="5"/>
       <c r="I48" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="J48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="I49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J49" t="s">
+        <v>167</v>
+      </c>
+      <c r="K49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="I50" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" t="s">
+        <v>173</v>
+      </c>
+      <c r="K50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="H49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="I50" t="s">
-        <v>162</v>
-      </c>
-      <c r="J50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2057,90 +2282,95 @@
         <v>34</v>
       </c>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="H52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="I52" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" t="s">
+        <v>173</v>
+      </c>
+      <c r="K52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="H54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="F55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="I54" t="s">
-        <v>169</v>
-      </c>
-      <c r="J54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="I55" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
@@ -2151,16 +2381,19 @@
       </c>
       <c r="F56" s="1"/>
       <c r="I56" t="s">
+        <v>138</v>
+      </c>
+      <c r="J56" t="s">
         <v>173</v>
       </c>
-      <c r="J56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -2170,17 +2403,20 @@
         <v>34</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="I57" t="s">
-        <v>175</v>
-      </c>
-      <c r="J57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -2191,16 +2427,19 @@
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="J58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="K58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -2211,16 +2450,19 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="J59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+      <c r="K59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -2230,19 +2472,20 @@
         <v>34</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="I60" s="4" t="s">
-        <v>181</v>
+      <c r="I60" t="s">
+        <v>146</v>
       </c>
       <c r="J60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="K60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -2252,22 +2495,20 @@
         <v>34</v>
       </c>
       <c r="F61" s="1"/>
-      <c r="H61" t="s">
-        <v>81</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>190</v>
+      <c r="I61" t="s">
+        <v>148</v>
       </c>
       <c r="J61" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="K61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
@@ -2277,56 +2518,111 @@
         <v>34</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="I62" t="s">
-        <v>192</v>
-      </c>
-      <c r="J62" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F63" s="1"/>
       <c r="H63" t="s">
-        <v>194</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J63" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="I64" t="s">
+        <v>152</v>
+      </c>
+      <c r="K64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="H65" t="s">
+        <v>154</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="I64" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="J64" t="s">
-        <v>196</v>
+      <c r="F66" s="1"/>
+      <c r="I66" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_patient_module_mapping.xlsx
+++ b/mapping/mml_patient_module_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="227">
   <si>
     <t>Elements</t>
   </si>
@@ -533,17 +533,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.16]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.death.v1</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0002]</t>
   </si>
   <si>
     <t>Address type</t>
@@ -736,23 +727,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/code_string</t>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -764,58 +751,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0024]/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.15]</t>
+    <t>DV_BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.15]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.death.v1 and name/value='Death']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/terminology_id/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1214,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1272,10 +1288,10 @@
         <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -1334,10 +1350,10 @@
         <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -1357,10 +1373,10 @@
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -1377,10 +1393,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.15">
@@ -1391,10 +1407,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="J10" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -1414,10 +1430,10 @@
         <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -1437,10 +1453,10 @@
         <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -1476,10 +1492,10 @@
         <v>89</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -1499,7 +1515,7 @@
         <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
         <v>88</v>
@@ -1522,10 +1538,10 @@
         <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1536,10 +1552,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="J17" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1556,7 +1572,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1576,10 +1592,10 @@
         <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1599,10 +1615,10 @@
         <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1655,10 +1671,10 @@
         <v>94</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1676,7 +1692,7 @@
       <c r="F24" s="1"/>
       <c r="J24" s="8"/>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1694,10 +1710,10 @@
         <v>97</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1715,10 +1731,10 @@
         <v>99</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1738,10 +1754,10 @@
         <v>101</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1759,10 +1775,10 @@
         <v>103</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1782,10 +1798,10 @@
         <v>105</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1805,10 +1821,10 @@
         <v>107</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -1831,10 +1847,10 @@
         <v>108</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1856,10 +1872,10 @@
         <v>109</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
@@ -1878,13 +1894,13 @@
       </c>
       <c r="F33" s="1"/>
       <c r="I33" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
@@ -1901,7 +1917,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="I34" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -1924,13 +1940,13 @@
         <v>110</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -1947,13 +1963,13 @@
       </c>
       <c r="F36" s="1"/>
       <c r="I36" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -1970,13 +1986,13 @@
       </c>
       <c r="F37" s="1"/>
       <c r="I37" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
@@ -2003,10 +2019,10 @@
         <v>111</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -2059,10 +2075,10 @@
         <v>114</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K41" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2081,13 +2097,13 @@
         <v>116</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -2104,7 +2120,7 @@
       </c>
       <c r="F43" s="5"/>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -2125,10 +2141,10 @@
         <v>119</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K44" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -2148,10 +2164,10 @@
         <v>121</v>
       </c>
       <c r="J45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
@@ -2171,10 +2187,10 @@
         <v>123</v>
       </c>
       <c r="J46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -2194,10 +2210,10 @@
         <v>125</v>
       </c>
       <c r="J47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
@@ -2217,10 +2233,10 @@
         <v>127</v>
       </c>
       <c r="J48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2240,10 +2256,10 @@
         <v>129</v>
       </c>
       <c r="J49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K49" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2263,10 +2279,10 @@
         <v>131</v>
       </c>
       <c r="J50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -2305,10 +2321,10 @@
         <v>132</v>
       </c>
       <c r="J52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K52" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2361,10 +2377,10 @@
         <v>136</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K55" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2384,10 +2400,10 @@
         <v>138</v>
       </c>
       <c r="J56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -2407,10 +2423,10 @@
         <v>140</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -2430,10 +2446,10 @@
         <v>142</v>
       </c>
       <c r="J58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -2453,10 +2469,10 @@
         <v>144</v>
       </c>
       <c r="J59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -2476,10 +2492,10 @@
         <v>146</v>
       </c>
       <c r="J60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
@@ -2499,10 +2515,10 @@
         <v>148</v>
       </c>
       <c r="J61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
@@ -2522,10 +2538,10 @@
         <v>150</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -2550,10 +2566,10 @@
         <v>151</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -2574,8 +2590,11 @@
       <c r="I64" t="s">
         <v>152</v>
       </c>
+      <c r="J64" t="s">
+        <v>170</v>
+      </c>
       <c r="K64" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
@@ -2594,14 +2613,16 @@
       </c>
       <c r="F65" s="1"/>
       <c r="H65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J65" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="K65" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -2618,11 +2639,13 @@
       </c>
       <c r="F66" s="1"/>
       <c r="I66" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J66" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="K66" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_patient_module_mapping.xlsx
+++ b/mapping/mml_patient_module_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="229">
   <si>
     <t>Elements</t>
   </si>
@@ -775,38 +775,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0.20]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-japan.v1 and name/value='Telecom details for Japanese system']/items[at0009 and name/value='Email address']/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -832,6 +800,46 @@
   </si>
   <si>
     <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.telecom_details-mml.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1230,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1240,7 +1248,7 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="25" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="31.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.5" customWidth="1"/>
   </cols>
@@ -1399,7 +1407,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2120,7 +2128,7 @@
       </c>
       <c r="F43" s="5"/>
       <c r="K43" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -2144,7 +2152,7 @@
         <v>170</v>
       </c>
       <c r="K44" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -2190,7 +2198,7 @@
         <v>164</v>
       </c>
       <c r="K46" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -2236,7 +2244,7 @@
         <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2259,7 +2267,7 @@
         <v>164</v>
       </c>
       <c r="K49" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2282,7 +2290,7 @@
         <v>170</v>
       </c>
       <c r="K50" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -2324,7 +2332,7 @@
         <v>170</v>
       </c>
       <c r="K52" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2355,10 +2363,10 @@
       </c>
       <c r="F54" s="1"/>
       <c r="H54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
@@ -2377,10 +2385,10 @@
         <v>136</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="K55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2403,7 +2411,7 @@
         <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -2426,7 +2434,7 @@
         <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -2449,7 +2457,7 @@
         <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -2472,7 +2480,7 @@
         <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -2495,7 +2503,7 @@
         <v>170</v>
       </c>
       <c r="K60" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
@@ -2518,7 +2526,7 @@
         <v>170</v>
       </c>
       <c r="K61" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
@@ -2541,7 +2549,7 @@
         <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">

--- a/mapping/mml_patient_module_mapping.xlsx
+++ b/mapping/mml_patient_module_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="23475" windowHeight="9780"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="20730" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>master id/checkDigitShema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>other id/Identifier</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,10 +468,6 @@
     <t>MML0003</t>
   </si>
   <si>
-    <t>Telecom type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPh:area</t>
   </si>
   <si>
@@ -500,10 +492,6 @@
     <t>mmlPh:extension</t>
   </si>
   <si>
-    <t>structured_telecoms/extention</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlPh:full</t>
   </si>
   <si>
@@ -537,15 +525,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Address type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*nationality/primary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*nationality/seconday</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -842,12 +822,32 @@
     <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>master id/checkDigitSchema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*nationality/secondary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address type with HL7 table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Telecoms type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,8 +863,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,6 +883,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +949,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,10 +1323,10 @@
         <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -1358,10 +1385,10 @@
         <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -1381,10 +1408,10 @@
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -1401,10 +1428,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -1415,10 +1442,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="J10" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -1438,10 +1465,10 @@
         <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -1457,14 +1484,14 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="I12" t="s">
-        <v>84</v>
+      <c r="I12" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -1497,13 +1524,13 @@
         <v>19</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -1520,13 +1547,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
@@ -1543,13 +1570,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1560,10 +1587,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="J17" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1580,7 +1607,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1597,13 +1624,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1620,13 +1647,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1656,7 +1683,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="8"/>
     </row>
@@ -1664,7 +1691,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -1673,23 +1700,23 @@
         <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -1700,13 +1727,13 @@
       <c r="F24" s="1"/>
       <c r="J24" s="8"/>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -1715,19 +1742,19 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="I25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -1736,19 +1763,19 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -1759,19 +1786,19 @@
       </c>
       <c r="F27" s="1"/>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -1780,19 +1807,19 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -1803,19 +1830,19 @@
       </c>
       <c r="F29" s="1"/>
       <c r="I29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -1826,13 +1853,13 @@
       </c>
       <c r="F30" s="1"/>
       <c r="I30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -1852,13 +1879,13 @@
         <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1877,13 +1904,13 @@
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K32" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
@@ -1902,13 +1929,13 @@
       </c>
       <c r="F33" s="1"/>
       <c r="I33" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
@@ -1924,8 +1951,8 @@
         <v>36</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="I34" s="4" t="s">
-        <v>156</v>
+      <c r="I34" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -1945,16 +1972,16 @@
       </c>
       <c r="F35" s="1"/>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -1971,13 +1998,13 @@
       </c>
       <c r="F36" s="1"/>
       <c r="I36" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -1994,13 +2021,13 @@
       </c>
       <c r="F37" s="1"/>
       <c r="I37" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
@@ -2024,13 +2051,13 @@
         <v>80</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -2061,14 +2088,14 @@
       </c>
       <c r="F40" s="1"/>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>13</v>
@@ -2077,23 +2104,23 @@
         <v>18</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K41" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>13</v>
@@ -2102,23 +2129,23 @@
         <v>36</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>154</v>
+        <v>115</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K42" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>13</v>
@@ -2128,14 +2155,14 @@
       </c>
       <c r="F43" s="5"/>
       <c r="K43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
@@ -2146,19 +2173,19 @@
       </c>
       <c r="F44" s="5"/>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K44" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
@@ -2169,19 +2196,19 @@
       </c>
       <c r="F45" s="5"/>
       <c r="I45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
@@ -2192,19 +2219,19 @@
       </c>
       <c r="F46" s="5"/>
       <c r="I46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K46" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
@@ -2215,19 +2242,19 @@
       </c>
       <c r="F47" s="5"/>
       <c r="I47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
@@ -2238,19 +2265,19 @@
       </c>
       <c r="F48" s="5"/>
       <c r="I48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J48" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
@@ -2261,19 +2288,19 @@
       </c>
       <c r="F49" s="5"/>
       <c r="I49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J49" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K49" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
@@ -2284,13 +2311,13 @@
       </c>
       <c r="F50" s="5"/>
       <c r="I50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -2307,7 +2334,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="H51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -2326,13 +2353,13 @@
       </c>
       <c r="F52" s="1"/>
       <c r="I52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J52" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2363,14 +2390,14 @@
       </c>
       <c r="F54" s="1"/>
       <c r="H54" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -2379,22 +2406,22 @@
         <v>36</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K55" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
@@ -2405,19 +2432,19 @@
       </c>
       <c r="F56" s="1"/>
       <c r="I56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K56" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -2428,19 +2455,19 @@
       </c>
       <c r="F57" s="1"/>
       <c r="I57" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K57" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -2451,19 +2478,19 @@
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K58" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -2473,20 +2500,20 @@
         <v>34</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="I59" t="s">
-        <v>144</v>
+      <c r="I59" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="J59" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K59" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -2497,19 +2524,19 @@
       </c>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J60" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K60" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -2520,19 +2547,19 @@
       </c>
       <c r="F61" s="1"/>
       <c r="I61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J61" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K61" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
@@ -2543,13 +2570,13 @@
       </c>
       <c r="F62" s="1"/>
       <c r="I62" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -2571,13 +2598,13 @@
         <v>80</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K63" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -2596,13 +2623,13 @@
       </c>
       <c r="F64" s="1"/>
       <c r="I64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K64" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
@@ -2621,16 +2648,16 @@
       </c>
       <c r="F65" s="1"/>
       <c r="H65" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K65" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -2647,18 +2674,19 @@
       </c>
       <c r="F66" s="1"/>
       <c r="I66" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K66" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/mapping/mml_patient_module_mapping.xlsx
+++ b/mapping/mml_patient_module_mapping.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -627,14 +628,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.8]/term_mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.8]/term_mappings/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_QUANTITY</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -840,6 +833,14 @@
   </si>
   <si>
     <t>structured_telecoms/extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.8]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.individual_personal-mml.v1 and name/value='Individual's personal demographics for MML expression']/items[at0.7]/items[at0.8]/mappings/target/defining_code/terminology_id/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1265,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1485,7 +1486,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="I12" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J12" t="s">
         <v>165</v>
@@ -1590,7 +1591,7 @@
         <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1607,7 +1608,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1627,10 +1628,10 @@
         <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1653,7 +1654,7 @@
         <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1706,10 +1707,10 @@
         <v>93</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1727,7 +1728,7 @@
       <c r="F24" s="1"/>
       <c r="J24" s="8"/>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1748,7 +1749,7 @@
         <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1769,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1792,7 +1793,7 @@
         <v>165</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1813,7 +1814,7 @@
         <v>165</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1836,7 +1837,7 @@
         <v>165</v>
       </c>
       <c r="K29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1859,7 +1860,7 @@
         <v>165</v>
       </c>
       <c r="K30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -1882,10 +1883,10 @@
         <v>107</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" t="s">
         <v>188</v>
-      </c>
-      <c r="K31" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1910,7 +1911,7 @@
         <v>165</v>
       </c>
       <c r="K32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
@@ -1935,7 +1936,7 @@
         <v>163</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
@@ -1952,7 +1953,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="I34" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J34" s="8"/>
     </row>
@@ -1981,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="K35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -2004,7 +2005,7 @@
         <v>165</v>
       </c>
       <c r="K36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -2027,7 +2028,7 @@
         <v>165</v>
       </c>
       <c r="K37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
@@ -2057,7 +2058,7 @@
         <v>165</v>
       </c>
       <c r="K38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -2113,7 +2114,7 @@
         <v>162</v>
       </c>
       <c r="K41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2132,13 +2133,13 @@
         <v>115</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>162</v>
       </c>
       <c r="K42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -2155,7 +2156,7 @@
       </c>
       <c r="F43" s="5"/>
       <c r="K43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -2179,7 +2180,7 @@
         <v>165</v>
       </c>
       <c r="K44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -2202,7 +2203,7 @@
         <v>165</v>
       </c>
       <c r="K45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
@@ -2225,7 +2226,7 @@
         <v>159</v>
       </c>
       <c r="K46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -2248,7 +2249,7 @@
         <v>165</v>
       </c>
       <c r="K47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
@@ -2271,7 +2272,7 @@
         <v>165</v>
       </c>
       <c r="K48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2294,7 +2295,7 @@
         <v>159</v>
       </c>
       <c r="K49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2317,7 +2318,7 @@
         <v>165</v>
       </c>
       <c r="K50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -2359,7 +2360,7 @@
         <v>165</v>
       </c>
       <c r="K52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2390,7 +2391,7 @@
       </c>
       <c r="F54" s="1"/>
       <c r="H54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -2409,13 +2410,13 @@
         <v>134</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2438,7 +2439,7 @@
         <v>165</v>
       </c>
       <c r="K56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -2461,7 +2462,7 @@
         <v>165</v>
       </c>
       <c r="K57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -2484,7 +2485,7 @@
         <v>165</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -2501,13 +2502,13 @@
       </c>
       <c r="F59" s="1"/>
       <c r="I59" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J59" t="s">
         <v>165</v>
       </c>
       <c r="K59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -2530,7 +2531,7 @@
         <v>165</v>
       </c>
       <c r="K60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
@@ -2553,7 +2554,7 @@
         <v>165</v>
       </c>
       <c r="K61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
@@ -2576,7 +2577,7 @@
         <v>165</v>
       </c>
       <c r="K62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -2604,7 +2605,7 @@
         <v>165</v>
       </c>
       <c r="K63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -2629,7 +2630,7 @@
         <v>165</v>
       </c>
       <c r="K64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
@@ -2654,10 +2655,10 @@
         <v>155</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -2677,10 +2678,10 @@
         <v>156</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
